--- a/bootstrap/packages.xlsx
+++ b/bootstrap/packages.xlsx
@@ -8,6 +8,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$76</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
@@ -16,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Category</t>
   </si>
@@ -30,6 +33,60 @@
     <t xml:space="preserve">Source </t>
   </si>
   <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>tmux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal multiplexer</t>
+  </si>
+  <si>
+    <t>pacman</t>
+  </si>
+  <si>
+    <t>nmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network scanner</t>
+  </si>
+  <si>
+    <t>tcpdump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network packet analyzer</t>
+  </si>
+  <si>
+    <t>wireshark-qt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network protocol analyzer</t>
+  </si>
+  <si>
+    <t>Browsers</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web browser</t>
+  </si>
+  <si>
+    <t>brave-bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy-focused web browser</t>
+  </si>
+  <si>
+    <t>yay</t>
+  </si>
+  <si>
+    <t>vivaldi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature-rich web browser</t>
+  </si>
+  <si>
     <t>Core</t>
   </si>
   <si>
@@ -39,9 +96,6 @@
     <t xml:space="preserve">Group of packages for building</t>
   </si>
   <si>
-    <t>pacman</t>
-  </si>
-  <si>
     <t>git</t>
   </si>
   <si>
@@ -108,6 +162,123 @@
     <t xml:space="preserve">Node.js package manager</t>
   </si>
   <si>
+    <t>fzf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command-line fuzzy finder</t>
+  </si>
+  <si>
+    <t>jq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command-line JSON processor</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>keepassxc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-platform password manager</t>
+  </si>
+  <si>
+    <t>thunderbird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email client</t>
+  </si>
+  <si>
+    <t>obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge base and note-taking software</t>
+  </si>
+  <si>
+    <t>cryptomator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud encryption tool</t>
+  </si>
+  <si>
+    <t>bitwarden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open source password manager</t>
+  </si>
+  <si>
+    <t>onlyoffice-bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office suite</t>
+  </si>
+  <si>
+    <t>signal-desktop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure messenger</t>
+  </si>
+  <si>
+    <t>telegram-desktop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud-based instant messaging</t>
+  </si>
+  <si>
+    <t>whatsapp-nativefier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WhatsApp desktop client</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voice and text chat</t>
+  </si>
+  <si>
+    <t>teamspeak3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voice chat software</t>
+  </si>
+  <si>
+    <t>haruna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimedia player</t>
+  </si>
+  <si>
+    <t>okular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document viewer</t>
+  </si>
+  <si>
+    <t>spotify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music streaming service</t>
+  </si>
+  <si>
+    <t>visual-studio-code-bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code editor</t>
+  </si>
+  <si>
+    <t>openssh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSH connectivity tools</t>
+  </si>
+  <si>
+    <t>spectacle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot capture utility</t>
+  </si>
+  <si>
     <t>Developer</t>
   </si>
   <si>
@@ -129,13 +300,121 @@
     <t xml:space="preserve">Git extension for versioning large files</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>tmux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminal multiplexer</t>
+    <t>postman-bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API development environment</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaming platform</t>
+  </si>
+  <si>
+    <t>lutris-git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game manager</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>xorg-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.Org X server</t>
+  </si>
+  <si>
+    <t>xorg-xinit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.Org initialisation program</t>
+  </si>
+  <si>
+    <t>i3-wm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiling window manager</t>
+  </si>
+  <si>
+    <t>i3status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status bar for i3</t>
+  </si>
+  <si>
+    <t>dmenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic menu for X</t>
+  </si>
+  <si>
+    <t>alacritty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPU-accelerated terminal emulator</t>
+  </si>
+  <si>
+    <t>polybar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status bar</t>
+  </si>
+  <si>
+    <t>Multimedia</t>
+  </si>
+  <si>
+    <t>gimp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image manipulation program</t>
+  </si>
+  <si>
+    <t>picard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music tagger</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>nvidia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVIDIA drivers</t>
+  </si>
+  <si>
+    <t>nvidia-utils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVIDIA driver utilities</t>
+  </si>
+  <si>
+    <t>nvidia-settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool for configuring the NVIDIA graphics driver</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>kcalc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientific calculator</t>
+  </si>
+  <si>
+    <t>filelight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disk usage visualization</t>
   </si>
   <si>
     <t>Staging</t>
@@ -147,18 +426,6 @@
     <t xml:space="preserve">Console file manager</t>
   </si>
   <si>
-    <t>fzf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command-line fuzzy finder</t>
-  </si>
-  <si>
-    <t>jq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command-line JSON processor</t>
-  </si>
-  <si>
     <t>ripgrep</t>
   </si>
   <si>
@@ -189,166 +456,55 @@
     <t xml:space="preserve">Smarter cd command</t>
   </si>
   <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>keepassxc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross-platform password manager</t>
-  </si>
-  <si>
-    <t>thunderbird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email client</t>
-  </si>
-  <si>
-    <t>obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knowledge base and note-taking software</t>
-  </si>
-  <si>
-    <t>yay</t>
-  </si>
-  <si>
-    <t>cryptomator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud encryption tool</t>
-  </si>
-  <si>
-    <t>bitwarden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open source password manager</t>
-  </si>
-  <si>
-    <t>onlyoffice-bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office suite</t>
-  </si>
-  <si>
-    <t>signal-desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure messenger</t>
-  </si>
-  <si>
-    <t>telegram-desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud-based instant messaging</t>
-  </si>
-  <si>
-    <t>whatsapp-nativefier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WhatsApp desktop client</t>
-  </si>
-  <si>
-    <t>discord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voice and text chat</t>
-  </si>
-  <si>
-    <t>teamspeak3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voice chat software</t>
-  </si>
-  <si>
-    <t>Browsers</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web browser</t>
-  </si>
-  <si>
-    <t>brave-bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privacy-focused web browser</t>
-  </si>
-  <si>
-    <t>vivaldi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature-rich web browser</t>
-  </si>
-  <si>
-    <t>Multimedia</t>
-  </si>
-  <si>
-    <t>gimp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image manipulation program</t>
-  </si>
-  <si>
-    <t>vlc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multimedia player</t>
-  </si>
-  <si>
-    <t>okular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document viewer</t>
-  </si>
-  <si>
-    <t>spotify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Music streaming service</t>
-  </si>
-  <si>
     <t>strawberry-qt5</t>
   </si>
   <si>
     <t xml:space="preserve">Music player and collection organizer</t>
   </si>
   <si>
-    <t>Gaming</t>
-  </si>
-  <si>
-    <t>steam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaming platform</t>
-  </si>
-  <si>
-    <t>lutris-git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game manager</t>
-  </si>
-  <si>
-    <t>Productivity</t>
-  </si>
-  <si>
-    <t>kcalc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scientific calculator</t>
-  </si>
-  <si>
-    <t>filelight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk usage visualization</t>
-  </si>
-  <si>
-    <t>visual-studio-code-bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code editor</t>
+    <t>hardinfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System information and benchmark tool</t>
+  </si>
+  <si>
+    <t>adriconf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced DRI (Direct Rendering Infrastructure) Configurator</t>
+  </si>
+  <si>
+    <t>czkawka-gui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-functional app to find duplicates, empty folders, similar images, etc.</t>
+  </si>
+  <si>
+    <t>grsync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTK+ GUI for rsync</t>
+  </si>
+  <si>
+    <t>Virtualization</t>
+  </si>
+  <si>
+    <t>qemu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic machine emulator and virtualizer</t>
+  </si>
+  <si>
+    <t>virt-manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desktop user interface for managing virtual machines</t>
+  </si>
+  <si>
+    <t>libvirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API for controlling virtualization</t>
   </si>
   <si>
     <t>Work</t>
@@ -369,157 +525,7 @@
     <t xml:space="preserve">Remote desktop client</t>
   </si>
   <si>
-    <t>nmap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network scanner</t>
-  </si>
-  <si>
-    <t>tcpdump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network packet analyzer</t>
-  </si>
-  <si>
-    <t>openssh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSH connectivity tools</t>
-  </si>
-  <si>
-    <t>wireshark-qt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network protocol analyzer</t>
-  </si>
-  <si>
-    <t>postman-bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API development environment</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>xorg-server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.Org X server</t>
-  </si>
-  <si>
-    <t>xorg-xinit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.Org initialisation program</t>
-  </si>
-  <si>
-    <t>i3-wm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiling window manager</t>
-  </si>
-  <si>
-    <t>i3status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status bar for i3</t>
-  </si>
-  <si>
-    <t>dmenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic menu for X</t>
-  </si>
-  <si>
-    <t>alacritty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPU-accelerated terminal emulator</t>
-  </si>
-  <si>
-    <t>spectacle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screenshot capture utility</t>
-  </si>
-  <si>
-    <t>polybar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status bar</t>
-  </si>
-  <si>
-    <t>Virtualization</t>
-  </si>
-  <si>
-    <t>qemu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generic machine emulator and virtualizer</t>
-  </si>
-  <si>
-    <t>virt-manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop user interface for managing virtual machines</t>
-  </si>
-  <si>
-    <t>libvirt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API for controlling virtualization</t>
-  </si>
-  <si>
-    <t>NVIDIA</t>
-  </si>
-  <si>
-    <t>nvidia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVIDIA drivers</t>
-  </si>
-  <si>
-    <t>nvidia-utils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVIDIA driver utilities</t>
-  </si>
-  <si>
-    <t>nvidia-settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool for configuring the NVIDIA graphics driver</t>
-  </si>
-  <si>
-    <t>picard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Music tagger</t>
-  </si>
-  <si>
-    <t>hardinfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System information and benchmark tool</t>
-  </si>
-  <si>
-    <t>adriconf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced DRI (Direct Rendering Infrastructure) Configurator</t>
-  </si>
-  <si>
-    <t>czkawka-gui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-functional app to find duplicates, empty folders, similar images, etc.</t>
-  </si>
-  <si>
-    <t>grsync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTK+ GUI for rsync</t>
+    <t>timeshift</t>
   </si>
 </sst>
 </file>
@@ -564,10 +570,10 @@
   <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1081,7 +1087,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1122,7 +1128,7 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1136,7 +1142,7 @@
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -1150,7 +1156,7 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1165,13 +1171,13 @@
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1179,55 +1185,55 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" t="s">
-        <v>4</v>
+      <c r="A9" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
+      <c r="A10" t="s">
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1235,83 +1241,83 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
+      <c r="A13" t="s">
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
+      <c r="A14" t="s">
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
+      <c r="A16" t="s">
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -1319,21 +1325,21 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="3" t="s">
-        <v>40</v>
+      <c r="A18" t="s">
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
@@ -1346,8 +1352,8 @@
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
+      <c r="A19" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -1360,8 +1366,8 @@
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
+      <c r="A20" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
@@ -1374,8 +1380,8 @@
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
+      <c r="A21" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
@@ -1388,8 +1394,8 @@
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="3" t="s">
-        <v>40</v>
+      <c r="A22" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
@@ -1402,50 +1408,50 @@
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
+      <c r="A23" t="s">
+        <v>51</v>
       </c>
       <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="3" t="s">
-        <v>40</v>
+      <c r="A25" t="s">
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
@@ -1454,12 +1460,12 @@
         <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
         <v>60</v>
@@ -1468,12 +1474,12 @@
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
@@ -1482,186 +1488,184 @@
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
         <v>76</v>
       </c>
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
         <v>78</v>
       </c>
-      <c r="D35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
         <v>80</v>
       </c>
-      <c r="D36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
         <v>81</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>83</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>85</v>
       </c>
-      <c r="D38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="D39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
         <v>88</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>90</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" t="s">
-        <v>92</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1669,83 +1673,83 @@
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
         <v>93</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>94</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" t="s">
         <v>95</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
         <v>96</v>
       </c>
-      <c r="D43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>97</v>
       </c>
-      <c r="C44" t="s">
-        <v>98</v>
-      </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
         <v>99</v>
       </c>
-      <c r="B45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
         <v>102</v>
       </c>
-      <c r="C46" t="s">
-        <v>103</v>
-      </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
         <v>104</v>
-      </c>
-      <c r="B47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" t="s">
-        <v>106</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1753,105 +1757,105 @@
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
         <v>107</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>108</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="A49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>109</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>110</v>
       </c>
-      <c r="D49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="A50" s="2" t="s">
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
         <v>111</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C51" t="s">
         <v>112</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
         <v>113</v>
       </c>
-      <c r="D50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="A51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C52" t="s">
         <v>114</v>
       </c>
-      <c r="C51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="A52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" t="s">
         <v>115</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
         <v>116</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25">
-      <c r="A53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>117</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
         <v>118</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="A54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>119</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" t="s">
         <v>120</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25">
-      <c r="A55" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="B55" t="s">
         <v>121</v>
@@ -1864,8 +1868,8 @@
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="2" t="s">
-        <v>37</v>
+      <c r="A56" t="s">
+        <v>120</v>
       </c>
       <c r="B56" t="s">
         <v>123</v>
@@ -1878,8 +1882,8 @@
       </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="2" t="s">
-        <v>30</v>
+      <c r="A57" t="s">
+        <v>120</v>
       </c>
       <c r="B57" t="s">
         <v>125</v>
@@ -1888,7 +1892,7 @@
         <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" ht="14.25">
@@ -1920,56 +1924,56 @@
       </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" t="s">
-        <v>127</v>
+      <c r="A60" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25">
-      <c r="A61" t="s">
-        <v>127</v>
-      </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" t="s">
-        <v>127</v>
+      <c r="A62" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" t="s">
-        <v>127</v>
+      <c r="A63" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1977,35 +1981,35 @@
     </row>
     <row r="64" ht="14.25">
       <c r="A64" s="2" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" t="s">
-        <v>127</v>
+      <c r="A65" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" t="s">
-        <v>144</v>
+      <c r="A66" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B66" t="s">
         <v>145</v>
@@ -2014,12 +2018,12 @@
         <v>146</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" t="s">
-        <v>144</v>
+      <c r="A67" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B67" t="s">
         <v>147</v>
@@ -2028,12 +2032,12 @@
         <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" t="s">
-        <v>144</v>
+      <c r="A68" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B68" t="s">
         <v>149</v>
@@ -2042,40 +2046,40 @@
         <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
         <v>151</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>152</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
         <v>153</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25">
-      <c r="A70" t="s">
-        <v>151</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>154</v>
       </c>
-      <c r="C70" t="s">
-        <v>155</v>
-      </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B71" t="s">
         <v>156</v>
@@ -2088,8 +2092,8 @@
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="2" t="s">
-        <v>88</v>
+      <c r="A72" t="s">
+        <v>155</v>
       </c>
       <c r="B72" t="s">
         <v>158</v>
@@ -2098,12 +2102,12 @@
         <v>159</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73" s="2" t="s">
-        <v>40</v>
+      <c r="A73" t="s">
+        <v>155</v>
       </c>
       <c r="B73" t="s">
         <v>160</v>
@@ -2112,40 +2116,40 @@
         <v>161</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="A74" s="2" t="s">
-        <v>40</v>
+      <c r="A74" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C74" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25">
-      <c r="A75" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
         <v>164</v>
       </c>
-      <c r="C75" t="s">
-        <v>165</v>
-      </c>
       <c r="D75" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" ht="14.25">
-      <c r="A76" s="2" t="s">
-        <v>40</v>
+      <c r="A76" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B76" t="s">
         <v>166</v>
@@ -2154,11 +2158,23 @@
         <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D76">
+    <sortState ref="A2:D76">
+      <sortCondition descending="0" ref="A1:A76"/>
+    </sortState>
+  </autoFilter>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
